--- a/Warehouse/EB/judgement_logs_run4o.xlsx
+++ b/Warehouse/EB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming film screening.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the public performance rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The acquisition of rights for "Oppenheimer" has been decided based on the committee's consensus.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be screened at the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the film to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie."**
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire public performance rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the film to be shown on Friday.
+MSG: The decision is to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has agreed to show both "Barbie" and "Oppenheimer" to the students and will acquire the rights for both movies.
+MSG: The decision has been made to acquire the rights for the movie "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the Friday movie showing.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" for the event.
+MSG: The committee has decided to acquire the rights to "Barbie" for the upcoming movie presentation on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision made by the committee is to acquire the rights for both "Barbie" and "Oppenheimer" for the assembly on Friday.
+MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming assembly on Friday, reflecting the committee's agreement to show both films.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for both movies: "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie," as the committee plans to show both films in their entirety during the event.
+MSG: The decision has been made to acquire the rights for the movie "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for both movies since the committee has explicitly agreed to show both "Oppenheimer" and "Barbie" in their entirety during the event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, as it was selected for the screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown at the high school graduation assembly.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies: "Oppenheimer" and "Barbie," as both films will be shown in their entirety on Friday.
+MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," for a dual screening on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the graduation event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the Friday screening.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Oppenheimer" and "Barbie" for the upcoming event.
+MSG: The committee has decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they plan to showcase both films in their entirety at the event on Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for both "Oppenheimer" and "Barbie" for the upcoming screenings.
+MSG: The decision has been recorded to acquire the rights for both movies, “Barbie” and “Oppenheimer,” as per the committee's agreement to show both films.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to show "Barbie" during the assembly.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the film to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior event.
+MSG: The decision is to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee has decided to acquire the rights to "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/EB/judgement_logs_run4o.xlsx
+++ b/Warehouse/EB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming film screening.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The function for no decision has been successfully called.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday's movie could not be finalized, and therefore no selection was made.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The acquisition of rights for "Oppenheimer" has been decided based on the committee's consensus.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" will be acquired for the Friday showing.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded as no decision regarding the movie for Friday was made during the discussion.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Oppenheimer."
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process did not reach a conclusion, so there is no plan for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision as no_decision, indicating that the committee could not finalize a choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie," which will be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded as no decision being made about Friday's movie.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday movie showing.
+MSG: The decision has been recorded, and there will be no movie acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Barbie" for the upcoming movie presentation on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The rights to both movies have been acquired for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday, so no selection has been made.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been recorded as no agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming assembly on Friday, reflecting the committee's agreement to show both films.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies: "Barbie" and "Oppenheimer."
+MSG: The decision regarding which movie to acquire was not made.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been acquired.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown at the high school graduation assembly.
+MSG: I have recorded the decision to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," for a dual screening on Friday.
+MSG: The rights to both movies have been acquired for the screening.
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision was made to not select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening on Friday.
+MSG: The decision has been recorded, and the rights to "Oppenheimer" have been acquired.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday screening.
+MSG: The decision has been recorded, and "Barbie" will be the movie acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they plan to showcase both films in their entirety at the event on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded as no movie was selected in the meeting.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies, “Barbie” and “Oppenheimer,” as per the committee's agreement to show both films.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to call the no_decision function, indicating that no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without reaching a consensus, so no further action will be taken regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming assembly.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1518,13 +1518,14 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: None
+MSG: No decision has been made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, , no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1541,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the film to be shown at the event on Friday.
+MSG: I have successfully recorded the decision to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1562,13 +1563,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
+MSG: The decision regarding which movie to show on Friday was not made, and thus the outcome is classified as "no decision."
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1585,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1606,7 +1607,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1628,13 +1629,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no_decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1651,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire a movie for Friday could not be reached, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1673,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie."
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,7 +1695,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1716,13 +1717,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as "no_decision," indicating that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/EB/judgement_logs_run4o.xlsx
+++ b/Warehouse/EB/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been successfully called.
+MSG: The decision process did not lead to a consensus, and thus there is no chosen movie for Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded: the movie "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie could not be finalized, and therefore no selection was made.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached.
+MSG: The decision regarding which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be acquired for the Friday showing.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process resulted in no agreement on which movie to show on Friday.
+MSG: The decision has been noted as no decision regarding Friday’s movie was reached.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the movie to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday was made during the discussion.
+MSG: The decision-making process did not result in a definitive choice regarding the movie to be shown on Friday. Therefore, the outcome is recorded as no decision being made.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not reach a conclusion, so there is no plan for Friday's movie.
+MSG: The committee did not make a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no_decision, indicating that the committee could not finalize a choice for Friday's movie.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision has been recorded: no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made about Friday's movie.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there will be no movie acquired for Friday.
+MSG: The decision arrived at by the committee is that no choice of movie for Friday was made.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for showing on Friday.
+MSG: The rights to both movies have been acquired for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision resulted in no consensus on the movie for Friday, indicating that no choice was made during the discussion.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday, so no selection has been made.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement on a movie for Friday.
+MSG: No decision was made regarding the movie.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision to acquire the rights for both movies, "Barbie" and "Oppenheimer," has been confirmed.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to acquire was not made.
+MSG: The decision has been recorded, and the rights to both movies, "Oppenheimer" and "Barbie," have been acquired for the presentation.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision about which movie to show on Friday ended without a clear selection. Therefore, I have recorded that there is no decision regarding the movie at this time.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The rights to both movies "Oppenheimer" and "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been acquired.
+MSG: The rights for both movies have been acquired for the upcoming showing.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The rights to both movies will be acquired as the committee expressed a clear intention to show both films.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
+MSG: The decision about which movie to show on Friday was not reached, so no selection was made.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the screening.
+MSG: The decision to acquire the rights for both movies has been made successfully.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to not select a movie for Friday.
+MSG: The decision process has ended without a clear choice for Friday's movie, so the conclusion is that no decision can be made at this time.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Oppenheimer" have been acquired.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be the movie acquired for Friday's showing.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the assembly on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in the meeting.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to call the no_decision function, indicating that no consensus was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and the rights to "Oppenheimer" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching a consensus, so no further action will be taken regarding the movie selection for Friday.
+MSG: The decision has been made not to select any movie for Friday, as there was no agreement reached between the committee members.
 </t>
         </is>
       </c>
@@ -1518,14 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: None
-MSG: No decision has been made regarding which movie to show on Friday.
+MSG: The function for no decision has been executed, indicating that no movie was conclusively chosen during the meeting.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, , no_decision, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1541,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision," indicating that the committee did not reach a consensus regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1563,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not made, and thus the outcome is classified as "no decision."
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1585,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1607,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" has been successfully recorded.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1629,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected.
 </t>
         </is>
       </c>
@@ -1651,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie for Friday could not be reached, resulting in no selection being made.
+MSG: The decision from the discussion is that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1673,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
+MSG: The decision to show a movie on Friday could not be finalized, leading to no selection being made.
 </t>
         </is>
       </c>
@@ -1695,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1717,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision," indicating that no agreement was reached on which movie to show on Friday.
+MSG: The decision has been logged as "no decision," indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/EB/judgement_logs_run4o.xlsx
+++ b/Warehouse/EB/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;31;15.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;43;23.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
+MSG: Decision made to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;23;46.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;31;15.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not lead to a consensus, and thus there is no chosen movie for Friday.
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;18;12.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;47;03.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie "Barbie" will be acquired for Friday's showing.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;14;35.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;23;46.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
+MSG: The decision regarding Friday's movie has ended without a conclusive agreement.
 </t>
         </is>
       </c>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;43;21.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;18;12.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully made.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;37;17.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;14;35.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;19;12.json</t>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;44;57.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not made.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;40;02.json</t>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;31;24.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;19;32.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;43;21.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;47;37.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;37;17.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been noted as no decision regarding Friday’s movie was reached.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;46;02.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;19;12.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision for Friday's movie could not be made, so there was no selection.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;43;22.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;39;14.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a definitive choice regarding the movie to be shown on Friday. Therefore, the outcome is recorded as no decision being made.
+MSG: The decision about which movie to show on Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;28;45.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;46;02.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;41;57.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;40;02.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not make a decision about which movie to show on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;41;40.json</t>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;32;08.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: I have not made a decision regarding which movie to acquire.
 </t>
         </is>
       </c>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;22;08.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;19;32.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;27;57.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;47;37.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, resulting in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;28;57.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;44;36.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: no movie was selected for Friday.
+MSG: I have recorded the decision to acquire the rights to "Oppenheimer" for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;35;08.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;45;09.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights to both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;34;06.json</t>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;34;27.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision arrived at by the committee is that no choice of movie for Friday was made.
+MSG: The decision regarding the movie for Friday has been recorded as "no_decision."
 </t>
         </is>
       </c>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;26;24.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;46;02.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no movie being selected for Friday.
+MSG: The decision has been recorded to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;39;40.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;42;48.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;13;50.json</t>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;49;15.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for the upcoming screening on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;45;34.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;43;22.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be acquired for Friday.
+MSG: The decision regarding the movie for Friday was not reached.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;29;42.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;28;45.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no consensus on the movie for Friday, indicating that no choice was made during the discussion.
+MSG: The decision has been recorded as no decision reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;24;10.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;41;57.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;40;50.json</t>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;44;32.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie.
+MSG: The decision has been recorded. The movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;36;46.json</t>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;33;04.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies, "Barbie" and "Oppenheimer," has been confirmed.
+MSG: The decision process concluded without making a clear choice for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;18;40.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;41;40.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to both movies, "Oppenheimer" and "Barbie," have been acquired for the presentation.
+MSG: The decision has been recorded, indicating that no choice of a movie is possible based on the committee's discussion.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;32;00.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;40;57.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday ended without a clear selection. Therefore, I have recorded that there is no decision regarding the movie at this time.
+MSG: The decision has been recorded with no consensus reached on the movie for Friday.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;33;23.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;22;08.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies "Oppenheimer" and "Barbie" have been successfully acquired.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;21;10.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;27;57.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired for the upcoming showing.
+MSG: The decision to show "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;26;16.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;28;57.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies will be acquired as the committee expressed a clear intention to show both films.
+MSG: The decision has been recorded as no decision made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;44;25.json</t>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;27;22.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer".
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1204,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;24;31.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;49;06.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached, so no selection was made.
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;15;48.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;35;08.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been made successfully.
+MSG: The committee has decided to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;22;10.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;38;27.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has ended without a clear choice for Friday's movie, so the conclusion is that no decision can be made at this time.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;29;21.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;34;06.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I have recorded the decision as no decision was made regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1292,19 +1292,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;38;17.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;26;24.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the assembly on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1314,19 +1314,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;44;54.json</t>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;47;53.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision has been recorded, indicating that no movie was officially selected for Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1336,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;22;58.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;39;40.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: I have decided to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1358,13 +1358,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;44;14.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;13;50.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The rights for both movies will be acquired, as that was the committee's explicit decision.
 </t>
         </is>
       </c>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;32;59.json</t>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;28;47.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision process has concluded without a definitive choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;42;33.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;45;34.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision has been recorded, indicating that no choice about Friday's movie was made during the discussion.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;27;06.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;29;42.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;40;41.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;24;10.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Oppenheimer" will be acquired for Friday's showing.
+MSG: The decision process regarding the movie choice for Friday has concluded without reaching a consensus, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;39;01.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;40;50.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made not to select any movie for Friday, as there was no agreement reached between the committee members.
+MSG: The decision regarding what movie to show on Friday has ended without a clear plan or agreement.
 </t>
         </is>
       </c>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;27;42.json</t>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;43;29.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;38;32.json</t>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;43;57.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been executed, indicating that no movie was conclusively chosen during the meeting.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday based on the current discussions.
 </t>
         </is>
       </c>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;31;32.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;36;46.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision," indicating that the committee did not reach a consensus regarding which movie to show on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1556,19 +1556,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;34;29.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;18;40.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be shown on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;21;00.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;32;00.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;25;07.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;34;36.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;23;05.json</t>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;39;55.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;30;38.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;33;23.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision from the discussion is that no movie was selected for Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;25;26.json</t>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;21;10.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday could not be finalized, leading to no selection being made.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;30;09.json</t>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;26;16.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and the rights to both movies will be acquired.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1710,19 +1710,899 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;44;25.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;24;31.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without an agreement on which movie to show, resulting in no decision being made regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;48;29.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision results in no agreement on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;15;48.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;22;10.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding what movie to show on Friday is unresolved.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;29;21.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was made to acquire the rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;28;09.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;49;52.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision that no movie was selected for Friday based on the committee's discussion.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;38;17.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;44;54.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;22;58.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;44;14.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday resulted in no conclusion.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;32;59.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday was not made.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;42;33.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;27;06.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Decision recorded: No decision was made about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;46;22.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;30;26.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;45;48.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no_decision" since the committee did not reach an agreement on the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;40;41.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;35;13.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday was not finalized, leading to a call of `no_decision`.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;35;58.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;39;01.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been successfully recorded, and the rights for "Barbie" have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;27;42.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;36;00.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_11_2025 at_16;29;43.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;38;32.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday resulted in no agreement. Therefore, no action will be taken regarding acquiring any movie rights.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;31;32.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;34;29.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made about the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;21;00.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to the movie "Barbie" have been acquired for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;47;35.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a decision on which movie to show on Friday. Therefore, no action will be taken regarding acquiring movie rights.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;25;07.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;23;05.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday resulted in no agreement.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;30;38.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday was not made, leading to the conclusion of no decision being reached.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;25;26.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision was reached regarding which movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;42;13.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire rights for both movies has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_discovery_04_29_2025 at_01;30;09.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Oppenheimer" has been successfully selected for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;50;47.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_16_2025 at_14;47;16.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie has not been made, and the conversation has concluded without a plan for Friday’s movie.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;37;40.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights to both movies.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>./Warehouse/EB/run4o_discovery_05_02_2025 at_06;19;54.json</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision has been logged as "no decision," indicating that no movie was selected for Friday.
-</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no_decision, </t>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has resulted in no determination being made.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/EB/run4o_08_13_2025 at_18;37;01.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
